--- a/vegetable.xlsx
+++ b/vegetable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>search</t>
   </si>
@@ -46,6 +46,9 @@
     <t>15 Ounce (Pack of 24)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/91vnaAXRqgS._SL1500_.jpg</t>
+  </si>
+  <si>
     <t>onions</t>
   </si>
   <si>
@@ -58,16 +61,7 @@
     <t>10 Pound (Pack of 1)</t>
   </si>
   <si>
-    <t>specialty vegetables</t>
-  </si>
-  <si>
-    <t>Easy Essentials Food Storage Container with Dividers/Food Storage Bin with Dividers - 78 Ounce, Clear</t>
-  </si>
-  <si>
-    <t>4.7 out of 5 stars</t>
-  </si>
-  <si>
-    <t>1.41 Ounce (Pack of 1)</t>
+    <t>https://m.media-amazon.com/images/I/71S0W9uaXjL._SL1500_.jpg</t>
   </si>
   <si>
     <t>pickled vegetables</t>
@@ -82,16 +76,7 @@
     <t>14.1 Ounce (Pack of 12)</t>
   </si>
   <si>
-    <t>fruit/vegetable juice</t>
-  </si>
-  <si>
-    <t>Anzid Juicer Machines Vegetable and Fruit, Red Centrifugal juicers Best Sellers Easy to Clean with Brush, Juice Extractor Machine with Wide Mouth Feed Chute, Multi Speed Control (110V)</t>
-  </si>
-  <si>
-    <t>3.7 out of 5 stars</t>
-  </si>
-  <si>
-    <t>120 Count (Pack of 2)</t>
+    <t>https://m.media-amazon.com/images/I/71bPBvRHeCL._SL1500_.jpg</t>
   </si>
   <si>
     <t>canned vegetables</t>
@@ -109,25 +94,7 @@
     <t>7.6 Ounce (Pack of 1)</t>
   </si>
   <si>
-    <t>other vegetables</t>
-  </si>
-  <si>
-    <t>Greenhouse Vegetable Gardening: Expert Advice on How to Grow Vegetables, Herbs, and Other Plants</t>
-  </si>
-  <si>
-    <t>4.5 out of 5 stars</t>
-  </si>
-  <si>
-    <t>potato products</t>
-  </si>
-  <si>
-    <t>Mandoline Slicer for Food and Vegetables -VEKAYA Adjustable Kitchen Vegetable Slicer For Potatoes and Onion| French Fry Slicer, Vegetable Chopper and Cutter with Waffle Maker and Gloves (Black)</t>
-  </si>
-  <si>
-    <t>4.3 out of 5 stars</t>
-  </si>
-  <si>
-    <t>15 Ounce (Pack of 1)</t>
+    <t>https://m.media-amazon.com/images/I/61kw3Ocf65S._SL1200_.jpg</t>
   </si>
   <si>
     <t>root vegetables</t>
@@ -140,6 +107,9 @@
   </si>
   <si>
     <t>Variety</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71VtHv4XgQL._SL1500_.jpg</t>
   </si>
 </sst>
 </file>
@@ -148,10 +118,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -162,6 +132,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -176,6 +154,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -185,15 +171,98 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,105 +275,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -315,187 +285,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,16 +498,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,17 +547,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -593,16 +563,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,152 +581,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -765,6 +735,9 @@
     </xf>
     <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1085,13 +1058,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:G11"/>
+  <dimension ref="B1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="21.875" customWidth="1"/>
     <col min="3" max="3" width="77.8214285714286" customWidth="1"/>
@@ -1117,7 +1090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1136,68 +1109,80 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:8">
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2">
         <v>16.64</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2">
-        <v>5.85</v>
+        <v>17.55</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E5" s="2">
         <v>17.55</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
+      <c r="H5" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:8">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
@@ -1208,116 +1193,50 @@
         <v>24</v>
       </c>
       <c r="E6" s="2">
-        <v>49.98</v>
+        <v>19.99</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:8">
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2">
-        <v>17.55</v>
+        <v>22.5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2">
-        <v>19.99</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="1" t="s">
+      <c r="H7" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="2">
-        <v>12.99</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="2">
-        <v>30.95</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="2">
-        <v>22.5</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="https://m.media-amazon.com/images/I/91vnaAXRqgS._SL1500_.jpg"/>
+    <hyperlink ref="H3" r:id="rId2" display="https://m.media-amazon.com/images/I/71S0W9uaXjL._SL1500_.jpg"/>
+    <hyperlink ref="H4" r:id="rId3" display="https://m.media-amazon.com/images/I/71bPBvRHeCL._SL1500_.jpg"/>
+    <hyperlink ref="H5" r:id="rId3" display="https://m.media-amazon.com/images/I/71bPBvRHeCL._SL1500_.jpg"/>
+    <hyperlink ref="H6" r:id="rId4" display="https://m.media-amazon.com/images/I/61kw3Ocf65S._SL1200_.jpg"/>
+    <hyperlink ref="H7" r:id="rId5" display="https://m.media-amazon.com/images/I/71VtHv4XgQL._SL1500_.jpg"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
